--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="56">
   <si>
     <t>Personel</t>
   </si>
@@ -825,6 +825,33 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -868,33 +895,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -1043,12 +1043,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -1068,6 +1062,12 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1366,6 +1366,33 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1374,33 +1401,6 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1479,9 +1479,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1504,6 +1501,9 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1522,6 +1522,12 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" t="s">
         <v>29</v>
       </c>
@@ -1541,12 +1547,6 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1557,9 +1557,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1582,6 +1579,9 @@
         <v>29</v>
       </c>
       <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1592,6 +1592,33 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1616,33 +1643,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1659,6 +1659,9 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
@@ -1681,9 +1684,6 @@
         <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1693,33 +1693,6 @@
       </c>
       <c r="B45" t="s">
         <v>25</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1831,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1839,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1885,7 +1858,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="56">
   <si>
     <t>Personel</t>
   </si>
@@ -607,33 +607,6 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -747,6 +720,33 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -825,6 +825,12 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -844,12 +850,6 @@
         <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -895,6 +895,33 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -938,33 +965,6 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1043,6 +1043,12 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -1062,12 +1068,6 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1113,6 +1113,33 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -1156,33 +1183,6 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1296,33 +1296,6 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1331,12 +1304,6 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
@@ -1356,6 +1323,12 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1401,6 +1374,33 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1479,6 +1479,9 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1501,9 +1504,6 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1522,15 +1522,6 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
@@ -1547,6 +1538,15 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1643,6 +1643,33 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1651,6 +1678,33 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1658,33 +1712,6 @@
       </c>
       <c r="B44" t="s">
         <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -1812,7 +1839,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Görevler" sheetId="4" r:id="rId4"/>
     <sheet name="Gerçek Plan" sheetId="5" r:id="rId5"/>
     <sheet name="Yorumlar" sheetId="6" r:id="rId6"/>
+    <sheet name="Ortak Personeller" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
   <si>
     <t>Personel</t>
   </si>
@@ -187,6 +188,54 @@
   </si>
   <si>
     <t>Oktay Çiçek</t>
+  </si>
+  <si>
+    <t>Sicil No</t>
+  </si>
+  <si>
+    <t>İsim Soyisim</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>MÜDÜR</t>
+  </si>
+  <si>
+    <t>GARSON</t>
+  </si>
+  <si>
+    <t>BARMEN</t>
+  </si>
+  <si>
+    <t>HOSTES</t>
+  </si>
+  <si>
+    <t>KAPTAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTAURANT CHEF </t>
+  </si>
+  <si>
+    <t>SOUS CHEF</t>
+  </si>
+  <si>
+    <t>CHEF DE PARTİE</t>
+  </si>
+  <si>
+    <t>DEMİ CHEF</t>
+  </si>
+  <si>
+    <t>COMMİS</t>
+  </si>
+  <si>
+    <t>STEWARD</t>
+  </si>
+  <si>
+    <t>HOUSEMAN</t>
+  </si>
+  <si>
+    <t>MAL KABUL</t>
   </si>
 </sst>
 </file>
@@ -607,6 +656,33 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -685,33 +761,6 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -825,12 +874,6 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -850,6 +893,12 @@
         <v>29</v>
       </c>
       <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -930,6 +979,12 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -949,12 +1004,6 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1043,12 +1092,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -1068,6 +1111,12 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1296,6 +1345,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1339,6 +1415,12 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
@@ -1358,12 +1440,6 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1374,33 +1450,6 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1479,9 +1528,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1504,6 +1550,9 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1557,6 +1606,9 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1579,9 +1631,6 @@
         <v>29</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1592,33 +1641,6 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1643,33 +1665,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1678,33 +1673,6 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1721,6 +1689,33 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
@@ -1729,6 +1724,15 @@
       <c r="B46" t="s">
         <v>26</v>
       </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" t="s">
         <v>29</v>
       </c>
@@ -1745,15 +1749,6 @@
         <v>29</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1831,7 +1826,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1839,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1885,7 +1880,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2097,4 +2092,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="74">
   <si>
     <t>Personel</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>MAL KABUL</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -761,6 +767,33 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -769,33 +802,6 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -874,33 +880,6 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -979,12 +958,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -1004,6 +977,12 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1014,6 +993,33 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1092,6 +1098,12 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -1111,12 +1123,6 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1415,12 +1421,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
@@ -1440,6 +1440,12 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1528,33 +1534,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1606,9 +1585,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1631,6 +1607,9 @@
         <v>29</v>
       </c>
       <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1641,6 +1620,33 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1681,6 +1687,33 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
@@ -1689,33 +1722,6 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
@@ -1724,12 +1730,6 @@
       <c r="B46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
       <c r="G46" t="s">
         <v>29</v>
       </c>
@@ -1749,6 +1749,12 @@
         <v>29</v>
       </c>
       <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2096,13 +2102,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2150,6 +2156,12 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="74">
   <si>
     <t>Personel</t>
   </si>
@@ -767,33 +767,6 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -802,6 +775,33 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -880,6 +880,33 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -888,33 +915,6 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -958,6 +958,12 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -977,12 +983,6 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -993,12 +993,6 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -1018,6 +1012,12 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1098,12 +1098,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -1123,6 +1117,12 @@
         <v>29</v>
       </c>
       <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1168,33 +1168,6 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -1238,6 +1211,33 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1351,6 +1351,9 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" t="s">
         <v>29</v>
       </c>
@@ -1373,9 +1376,6 @@
         <v>29</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1386,6 +1386,12 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
@@ -1405,12 +1411,6 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1421,33 +1421,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1456,6 +1429,33 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1534,6 +1534,33 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1542,6 +1569,33 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1550,6 +1604,9 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
@@ -1572,9 +1629,6 @@
         <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1585,6 +1639,15 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1601,15 +1664,6 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1620,33 +1674,6 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1722,6 +1749,33 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
@@ -1729,33 +1783,6 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1832,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1875,7 +1902,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="74">
   <si>
     <t>Personel</t>
   </si>
@@ -732,33 +732,6 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -767,6 +740,33 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -915,6 +915,33 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -923,33 +950,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -958,12 +958,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -983,6 +977,12 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1351,9 +1351,6 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
       <c r="H27" t="s">
         <v>29</v>
       </c>
@@ -1376,6 +1373,9 @@
         <v>29</v>
       </c>
       <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1386,33 +1386,6 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
@@ -1421,6 +1394,33 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1569,33 +1569,6 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1604,6 +1577,18 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" t="s">
         <v>29</v>
       </c>
@@ -1617,18 +1602,6 @@
         <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1639,15 +1612,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1664,6 +1628,15 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1674,6 +1647,33 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1714,6 +1714,15 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
@@ -1730,15 +1739,6 @@
         <v>29</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1748,33 +1748,6 @@
       </c>
       <c r="B45" t="s">
         <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1867,7 +1840,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="69">
   <si>
     <t>Personel</t>
   </si>
@@ -70,22 +70,34 @@
     <t>21:00</t>
   </si>
   <si>
-    <t>Çağatay Kaya</t>
-  </si>
-  <si>
-    <t>Mertkan Merçil</t>
-  </si>
-  <si>
-    <t>Bilge Kurt</t>
-  </si>
-  <si>
-    <t>Feytullah Yavuz</t>
-  </si>
-  <si>
-    <t>Ferhat Coşkun</t>
-  </si>
-  <si>
-    <t>Osman Yaman</t>
+    <t>OSMAN YAMAN</t>
+  </si>
+  <si>
+    <t>CEREN SAĞLAMDEMİR</t>
+  </si>
+  <si>
+    <t>FERHAT COŞKUN</t>
+  </si>
+  <si>
+    <t>HİDAYET UYSAL</t>
+  </si>
+  <si>
+    <t>MURAT KUNU</t>
+  </si>
+  <si>
+    <t>ÇAĞATAY KAYA</t>
+  </si>
+  <si>
+    <t>MERTKAN MERÇİL</t>
+  </si>
+  <si>
+    <t>HASAN ŞİT</t>
+  </si>
+  <si>
+    <t>SİBEL DİZGE</t>
+  </si>
+  <si>
+    <t>BİLGE KURT</t>
   </si>
   <si>
     <t>Pazartesi</t>
@@ -128,33 +140,6 @@
   </si>
   <si>
     <t>GÖREVLER</t>
-  </si>
-  <si>
-    <t>HASAN ŞİT</t>
-  </si>
-  <si>
-    <t>SİBEL DİZGE</t>
-  </si>
-  <si>
-    <t>BİLGE KURT</t>
-  </si>
-  <si>
-    <t>CEREN SAĞLAMDEMİR</t>
-  </si>
-  <si>
-    <t>OSMAN YAMAN</t>
-  </si>
-  <si>
-    <t>HİDAYET UYSAL</t>
-  </si>
-  <si>
-    <t>FERHAT COŞKUN</t>
-  </si>
-  <si>
-    <t>MERTKAN MERÇİL</t>
-  </si>
-  <si>
-    <t>ÇAĞATAY KAYA</t>
   </si>
   <si>
     <t>Menaj Dolumu</t>
@@ -599,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,34 +645,34 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -695,34 +680,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -730,7 +715,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -738,34 +750,34 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -773,34 +785,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -808,34 +793,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -843,34 +828,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -878,34 +863,34 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -913,34 +898,34 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -948,7 +933,34 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -956,33 +968,6 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -991,34 +976,34 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1026,34 +1011,34 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1061,34 +1046,34 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1096,34 +1081,34 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1131,34 +1116,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1166,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1174,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1209,34 +1194,34 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1244,34 +1229,34 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1279,34 +1264,34 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1314,34 +1299,34 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1349,34 +1334,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1384,7 +1342,34 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1392,34 +1377,34 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1427,34 +1412,34 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1462,34 +1447,34 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1497,34 +1482,34 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1532,34 +1517,34 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1567,7 +1552,34 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -1575,34 +1587,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -1610,34 +1595,34 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -1645,34 +1630,34 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1680,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -1688,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -1696,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -1704,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -1712,34 +1697,34 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -1747,7 +1732,34 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1755,7 +1767,34 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1763,7 +1802,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -1771,7 +1810,285 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
         <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1840,7 +2157,39 @@
         <v>21</v>
       </c>
       <c r="B7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +2199,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1861,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1872,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -1883,10 +2232,54 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1904,82 +2297,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1997,73 +2390,73 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2081,18 +2474,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2110,58 +2503,340 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="69">
   <si>
     <t>Personel</t>
   </si>
@@ -70,76 +70,76 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>ÇAĞATAY KAYA</t>
+  </si>
+  <si>
+    <t>MERTKAN MERÇİL</t>
+  </si>
+  <si>
+    <t>BİLGE KURT</t>
+  </si>
+  <si>
+    <t>FEYTULLAH YAVUZ</t>
+  </si>
+  <si>
+    <t>FERHAT COŞKUN</t>
+  </si>
+  <si>
     <t>OSMAN YAMAN</t>
   </si>
   <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>Salı</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>Cumartesi</t>
+  </si>
+  <si>
+    <t>Pazar</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Toplam Çalışma Saati</t>
+  </si>
+  <si>
+    <t>Durum</t>
+  </si>
+  <si>
+    <t>Eksik Saat</t>
+  </si>
+  <si>
+    <t>Havuz Personel</t>
+  </si>
+  <si>
+    <t>AD SOYAD</t>
+  </si>
+  <si>
+    <t>GÖREVLER</t>
+  </si>
+  <si>
+    <t>HASAN ŞİT</t>
+  </si>
+  <si>
+    <t>SİBEL DİZGE</t>
+  </si>
+  <si>
     <t>CEREN SAĞLAMDEMİR</t>
   </si>
   <si>
-    <t>FERHAT COŞKUN</t>
-  </si>
-  <si>
     <t>HİDAYET UYSAL</t>
-  </si>
-  <si>
-    <t>MURAT KUNU</t>
-  </si>
-  <si>
-    <t>ÇAĞATAY KAYA</t>
-  </si>
-  <si>
-    <t>MERTKAN MERÇİL</t>
-  </si>
-  <si>
-    <t>HASAN ŞİT</t>
-  </si>
-  <si>
-    <t>SİBEL DİZGE</t>
-  </si>
-  <si>
-    <t>BİLGE KURT</t>
-  </si>
-  <si>
-    <t>Pazartesi</t>
-  </si>
-  <si>
-    <t>Salı</t>
-  </si>
-  <si>
-    <t>Çarşamba</t>
-  </si>
-  <si>
-    <t>Perşembe</t>
-  </si>
-  <si>
-    <t>Cuma</t>
-  </si>
-  <si>
-    <t>Cumartesi</t>
-  </si>
-  <si>
-    <t>Pazar</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Toplam Çalışma Saati</t>
-  </si>
-  <si>
-    <t>Durum</t>
-  </si>
-  <si>
-    <t>Eksik Saat</t>
-  </si>
-  <si>
-    <t>Havuz Personel</t>
-  </si>
-  <si>
-    <t>AD SOYAD</t>
-  </si>
-  <si>
-    <t>GÖREVLER</t>
   </si>
   <si>
     <t>Menaj Dolumu</t>
@@ -584,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,34 +645,34 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -680,34 +680,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -715,34 +715,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -750,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -785,7 +758,34 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -793,34 +793,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -828,34 +828,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -863,34 +863,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -898,34 +871,34 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -933,34 +906,34 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -968,6 +941,33 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -976,34 +976,34 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1011,34 +1011,34 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1046,34 +1046,34 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1081,34 +1081,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1116,34 +1089,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1151,7 +1124,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1194,34 +1194,34 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1229,34 +1229,34 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1264,34 +1264,34 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1299,34 +1299,34 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1334,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1342,34 +1342,34 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1377,34 +1377,34 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1412,34 +1412,34 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1447,34 +1447,34 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1482,34 +1482,34 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1517,34 +1517,34 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1552,34 +1552,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -1587,7 +1560,34 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -1595,34 +1595,34 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O37" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -1630,34 +1630,34 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1665,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -1673,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -1681,7 +1681,34 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -1689,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -1697,34 +1724,34 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -1732,34 +1759,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1767,34 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N46" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1802,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -1810,285 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" t="s">
         <v>28</v>
-      </c>
-      <c r="H52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60" t="s">
-        <v>33</v>
-      </c>
-      <c r="K60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L60" t="s">
-        <v>33</v>
-      </c>
-      <c r="M60" t="s">
-        <v>33</v>
-      </c>
-      <c r="N60" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2109,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2157,39 +1852,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2210,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2221,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -2232,54 +1895,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2297,15 +1916,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2313,7 +1932,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -2321,7 +1940,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -2329,7 +1948,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -2337,7 +1956,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -2345,7 +1964,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -2353,7 +1972,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -2361,7 +1980,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -2369,7 +1988,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -2390,73 +2009,73 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2093,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>48</v>
@@ -2495,7 +2114,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2559,7 +2178,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -2571,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2606,7 +2225,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2618,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -2648,194 +2267,6 @@
         <v>4</v>
       </c>
       <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
         <v>5</v>
       </c>
     </row>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -717,6 +717,33 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -725,33 +752,6 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -865,6 +865,33 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -908,12 +935,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
@@ -933,6 +954,12 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -943,6 +970,12 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -962,12 +995,6 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -978,33 +1005,6 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1196,6 +1196,12 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
@@ -1215,12 +1221,6 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1301,12 +1301,6 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
@@ -1326,6 +1320,12 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1336,6 +1336,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1344,33 +1371,6 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
@@ -1379,6 +1379,12 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
@@ -1398,12 +1404,6 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1414,6 +1414,9 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1436,9 +1439,6 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1562,33 +1562,6 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
@@ -1597,6 +1570,9 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1619,9 +1595,6 @@
         <v>29</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1683,9 +1656,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
       <c r="H42" t="s">
         <v>29</v>
       </c>
@@ -1708,6 +1678,9 @@
         <v>29</v>
       </c>
       <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1726,6 +1699,9 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
@@ -1748,9 +1724,6 @@
         <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1768,6 +1741,33 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1844,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1898,7 +1898,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="69">
   <si>
     <t>Personel</t>
   </si>
@@ -682,33 +682,6 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -752,6 +725,33 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -900,6 +900,18 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
@@ -913,18 +925,6 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -970,33 +970,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1005,6 +978,33 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1083,6 +1083,33 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1196,33 +1223,6 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1336,6 +1336,9 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" t="s">
         <v>29</v>
       </c>
@@ -1358,9 +1361,6 @@
         <v>29</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1371,6 +1371,33 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
@@ -1379,33 +1406,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1519,9 +1519,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1544,6 +1541,9 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1554,6 +1554,33 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1562,6 +1589,33 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
@@ -1570,33 +1624,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -1656,33 +1683,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1699,9 +1699,6 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
@@ -1724,6 +1721,9 @@
         <v>29</v>
       </c>
       <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1733,6 +1733,33 @@
       </c>
       <c r="B45" t="s">
         <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1844,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1887,7 +1914,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -682,6 +682,33 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -760,33 +787,6 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -900,18 +900,6 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
@@ -925,6 +913,18 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -935,33 +935,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -970,6 +943,33 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -978,6 +978,12 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -997,12 +1003,6 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1118,33 +1118,6 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1223,6 +1196,33 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1371,6 +1371,12 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
@@ -1390,12 +1396,6 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1406,6 +1406,33 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1414,33 +1441,6 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1519,33 +1519,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1589,6 +1562,9 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
@@ -1611,9 +1587,6 @@
         <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1624,6 +1597,33 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -1632,6 +1632,9 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
@@ -1654,9 +1657,6 @@
         <v>29</v>
       </c>
       <c r="O38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1683,6 +1683,33 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1733,33 +1760,6 @@
       </c>
       <c r="B45" t="s">
         <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16">

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -199,7 +199,7 @@
     <t>KAPTAN</t>
   </si>
   <si>
-    <t xml:space="preserve">RESTAURANT CHEF </t>
+    <t>RESTAURANT CHEF</t>
   </si>
   <si>
     <t>SOUS CHEF</t>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>MAL KABUL</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -717,33 +711,6 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -787,6 +754,33 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -935,6 +929,33 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -978,33 +999,6 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1118,6 +1112,33 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1196,33 +1217,6 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1336,33 +1330,6 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1441,6 +1408,33 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1725,33 +1719,6 @@
       </c>
       <c r="B44" t="s">
         <v>24</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -1879,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1892,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2141,13 +2108,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2196,14 +2163,8 @@
       <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>20</v>
       </c>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -711,6 +711,33 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -719,33 +746,6 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -894,33 +894,6 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -929,12 +902,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
@@ -954,6 +921,12 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -964,6 +937,12 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -983,12 +962,6 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -999,6 +972,33 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1077,33 +1077,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1217,6 +1190,33 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -1330,6 +1330,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1338,12 +1365,6 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
@@ -1363,6 +1384,12 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1373,33 +1400,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1408,15 +1408,6 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1433,6 +1424,15 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1556,9 +1556,6 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
@@ -1581,6 +1578,9 @@
         <v>29</v>
       </c>
       <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,6 +1591,15 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1607,15 +1616,6 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1626,9 +1626,6 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
@@ -1651,6 +1648,9 @@
         <v>29</v>
       </c>
       <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1677,6 +1677,9 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" t="s">
         <v>29</v>
       </c>
@@ -1699,9 +1702,6 @@
         <v>29</v>
       </c>
       <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1728,6 +1728,33 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
@@ -1735,33 +1762,6 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -676,33 +676,6 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -746,6 +719,33 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -937,12 +937,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -962,6 +956,12 @@
         <v>29</v>
       </c>
       <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1077,6 +1077,33 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1085,6 +1112,18 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
@@ -1098,18 +1137,6 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1155,33 +1182,6 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -1330,33 +1330,6 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1400,6 +1373,33 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1513,6 +1513,33 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1521,6 +1548,9 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" t="s">
         <v>29</v>
       </c>
@@ -1543,9 +1573,6 @@
         <v>29</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,12 +1618,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
       <c r="G37" t="s">
         <v>29</v>
       </c>
@@ -1616,6 +1637,12 @@
         <v>29</v>
       </c>
       <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1626,33 +1653,6 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1677,33 +1677,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1712,6 +1685,33 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1728,9 +1728,6 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
       <c r="H45" t="s">
         <v>29</v>
       </c>
@@ -1753,6 +1750,9 @@
         <v>29</v>
       </c>
       <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1762,6 +1762,33 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1846,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1919,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -676,6 +676,33 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -754,33 +781,6 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -894,6 +894,33 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -937,33 +964,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -972,6 +972,12 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -991,12 +997,6 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1077,33 +1077,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1112,18 +1085,6 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
@@ -1137,6 +1098,18 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1182,6 +1155,33 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -1190,6 +1190,12 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
@@ -1209,12 +1215,6 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1408,6 +1408,9 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1430,9 +1433,6 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1513,6 +1513,9 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1535,9 +1538,6 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1548,33 +1548,6 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1653,6 +1626,33 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1677,6 +1677,33 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1685,9 +1712,6 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
       <c r="H43" t="s">
         <v>29</v>
       </c>
@@ -1710,6 +1734,9 @@
         <v>29</v>
       </c>
       <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1720,6 +1747,33 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
@@ -1762,33 +1816,6 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1873,7 +1900,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -894,33 +894,6 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -964,6 +937,33 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1077,6 +1077,33 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1155,33 +1182,6 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -1295,33 +1295,6 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
@@ -1330,6 +1303,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1513,33 +1513,6 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1548,6 +1521,33 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1677,6 +1677,9 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" t="s">
         <v>29</v>
       </c>
@@ -1699,9 +1702,6 @@
         <v>29</v>
       </c>
       <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1712,33 +1712,6 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1747,33 +1720,6 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
@@ -1816,6 +1762,33 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1900,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1919,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -676,33 +676,6 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -781,6 +754,33 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -972,12 +972,6 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -997,6 +991,12 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1112,6 +1112,18 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
@@ -1125,18 +1137,6 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1147,33 +1147,6 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -1182,6 +1155,33 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -1190,12 +1190,6 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
@@ -1215,6 +1209,12 @@
         <v>29</v>
       </c>
       <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1295,6 +1295,33 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
@@ -1303,33 +1330,6 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1338,6 +1338,12 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
@@ -1357,12 +1363,6 @@
         <v>29</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1373,12 +1373,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
@@ -1398,6 +1392,12 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1408,9 +1408,6 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1433,6 +1430,9 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1513,6 +1513,33 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -1521,33 +1548,6 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -1556,6 +1556,9 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" t="s">
         <v>29</v>
       </c>
@@ -1578,9 +1581,6 @@
         <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,9 +1591,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
@@ -1616,6 +1613,9 @@
         <v>29</v>
       </c>
       <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1677,33 +1677,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1712,6 +1685,33 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1720,6 +1720,33 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
@@ -1728,33 +1755,6 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
@@ -1762,33 +1762,6 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1873,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1892,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -641,33 +641,6 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -676,6 +649,33 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -859,6 +859,12 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -878,12 +884,6 @@
         <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -894,6 +894,33 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -902,33 +929,6 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -1077,33 +1077,6 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1112,18 +1085,6 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
@@ -1137,6 +1098,18 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1147,6 +1120,33 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -1295,6 +1295,12 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
@@ -1314,12 +1320,6 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1330,6 +1330,33 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1373,33 +1400,6 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1513,6 +1513,9 @@
       <c r="B34" t="s">
         <v>22</v>
       </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
@@ -1535,9 +1538,6 @@
         <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,33 +1591,6 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -1677,6 +1650,33 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
@@ -1685,33 +1685,6 @@
       <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -1754,6 +1727,33 @@
       </c>
       <c r="B45" t="s">
         <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -1838,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1881,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1892,7 +1892,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vardiya_planı.xlsx
+++ b/vardiya_planı.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="67">
   <si>
     <t>Personel</t>
   </si>
@@ -929,6 +929,33 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -937,33 +964,6 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1077,6 +1077,33 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
@@ -1120,33 +1147,6 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -1295,12 +1295,6 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
@@ -1320,6 +1314,12 @@
         <v>29</v>
       </c>
       <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1365,33 +1365,6 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
@@ -1400,6 +1373,33 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1556,6 +1556,12 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" t="s">
         <v>29</v>
       </c>
@@ -1575,12 +1581,6 @@
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,6 +1591,33 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -1599,33 +1626,6 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -1650,9 +1650,6 @@
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
       <c r="H42" t="s">
         <v>29</v>
       </c>
@@ -1675,6 +1672,9 @@
         <v>29</v>
       </c>
       <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1693,6 +1693,9 @@
       <c r="B44" t="s">
         <v>24</v>
       </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
@@ -1715,9 +1718,6 @@
         <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1728,9 +1728,6 @@
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
       <c r="H45" t="s">
         <v>29</v>
       </c>
@@ -1753,6 +1750,9 @@
         <v>29</v>
       </c>
       <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1762,6 +1762,33 @@
       </c>
       <c r="B46" t="s">
         <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1846,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1919,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
